--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-397833.8980309622</v>
+        <v>-400322.6370604792</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>110.0923443600256</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>70.51113862850629</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>73.34931970216549</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>85.78789945459381</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>48.28983649716042</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>70.97585417237234</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>42.01201317445388</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>95.81514163764196</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>108.506380051739</v>
+        <v>2.834206670628514</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,7 +1306,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>114.2656173771025</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>252.3155940990559</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>121.6761271205435</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>122.2059282187656</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>148.6282353729479</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>87.27508091634242</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>24.8326660635293</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,10 +2056,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>271.3147947236944</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238295</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>151.6499090771561</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>80.33989744908958</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>15.51491006411178</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>33.82891891787531</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="30">
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>194.9085394018857</v>
+        <v>43.34824157860987</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187877</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>42.53134576113725</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569541</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>32.3737318391927</v>
       </c>
       <c r="D37" t="n">
-        <v>28.75188085812011</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>147.0536681065587</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261733</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.010065354185</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796283</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C2" t="n">
-        <v>810.5660676371782</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D2" t="n">
-        <v>452.3003690304277</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="E2" t="n">
-        <v>66.51211643218346</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F2" t="n">
-        <v>66.51211643218346</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.33740552049</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794327</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450756</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180642</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919562</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.37029594375</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686083</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064758</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962573</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609173</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310.0549803959803</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C4" t="n">
-        <v>310.0549803959803</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959803</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>286.8195251357049</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>286.8195251357049</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>140.6023383535627</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242374</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368017</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1048.254280474488</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
-        <v>758.8371104375277</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X4" t="n">
-        <v>530.8475595395104</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y4" t="n">
-        <v>310.0549803959803</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1685.375546116519</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C5" t="n">
-        <v>1316.413029176107</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D5" t="n">
-        <v>958.1473305693569</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>572.3590779711126</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>3047.935292001097</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>2716.872404657527</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180641</v>
+        <v>2364.103749387412</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180641</v>
+        <v>1990.637991126332</v>
       </c>
       <c r="Y5" t="n">
-        <v>2071.975386180641</v>
+        <v>1600.498659150521</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>381.1049005553748</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>381.1049005553748</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1884.8581711446</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1663.091555714126</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1373.98868883977</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1119.304200633883</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>829.8870305969223</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X7" t="n">
-        <v>601.8974796989049</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y7" t="n">
-        <v>381.1049005553748</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2085.807325826219</v>
+        <v>1979.06775675439</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136267</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136267</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866153</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X8" t="n">
-        <v>2862.546497866153</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y8" t="n">
-        <v>2472.407165890341</v>
+        <v>2365.667596818512</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,40 +4887,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1722.044275313594</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1722.044275313594</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1722.044275313594</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V10" t="n">
-        <v>1722.044275313594</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W10" t="n">
-        <v>1722.044275313594</v>
+        <v>1258.977812021152</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>1030.988261123135</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>810.195681979605</v>
       </c>
     </row>
     <row r="11">
@@ -5036,19 +5036,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.079034721979</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2253.988764961266</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>639.6425904082687</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C13" t="n">
-        <v>470.7064074803617</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1560.161572207406</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,58 +5264,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
         <v>2129.438138565707</v>
@@ -5410,55 +5410,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.9745311434712</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="C16" t="n">
-        <v>869.9745311434712</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D16" t="n">
-        <v>719.8578917311354</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
@@ -5467,19 +5467,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052219</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015258</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.415575117241</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.622995973711</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5507,19 +5507,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,19 +5528,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5598,22 +5598,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876675</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876675</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D19" t="n">
-        <v>580.8993044876675</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E19" t="n">
-        <v>432.9862109052743</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>286.0962634073639</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>118.9001641222439</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038385</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797788</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396415</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359455</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614373</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179072</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5978,34 @@
         <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958734</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C25" t="n">
-        <v>633.9926444679666</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>483.8760050556308</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>483.8760050556308</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>483.8760050556308</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>316.6799057705107</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>174.9680746127088</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2431.291457252875</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2211.689992275817</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1922.614765620014</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1667.930277414127</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1378.513107377167</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>1150.523556479149</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>274.8772357154533</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>127.9872882175429</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="29">
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,7 +6695,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
@@ -6710,13 +6710,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6911,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>2149.810879820877</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319332</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656826</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942663</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580122</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345484</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,28 +7567,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
         <v>483.825546038073</v>
@@ -7819,25 +7819,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-6.325489220791986e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>255.1805474109819</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>202.3608922128365</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>287.5337851011855</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.15585306139384</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012055</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>164.3170701178254</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>31.2037448089894</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986248</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>59.15888173022675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012621</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>115.4620467826946</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>14.86967966554977</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>134.8730892594349</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9259388694759565</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>165.5113759375328</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>131.6952193743935</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>57.22910392194228</v>
+        <v>208.7894017452181</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>106.0841272570751</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>134.8730892594351</v>
       </c>
       <c r="D37" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>139.4693302300323</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-4.709566198145672e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-7.958078640513122e-13</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1018980.527005426</v>
+        <v>1018980.527005425</v>
       </c>
     </row>
     <row r="3">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251542.9259350418</v>
+        <v>251542.9259350415</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="F2" t="n">
-        <v>282501.3098915021</v>
+        <v>282501.3098915023</v>
       </c>
       <c r="G2" t="n">
         <v>282501.3098915022</v>
       </c>
       <c r="H2" t="n">
-        <v>282501.3098915021</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="I2" t="n">
-        <v>282501.3098915021</v>
+        <v>282501.3098915023</v>
       </c>
       <c r="J2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="K2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915023</v>
       </c>
       <c r="L2" t="n">
         <v>282501.3098915022</v>
       </c>
       <c r="M2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="N2" t="n">
         <v>282501.3098915021</v>
-      </c>
-      <c r="N2" t="n">
-        <v>282501.3098915023</v>
       </c>
       <c r="O2" t="n">
         <v>287364.6194524992</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551164</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34377.14788073977</v>
+        <v>34377.14788073975</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="H4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="J4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
+        <v>13606.80811184273</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13606.80811184273</v>
+      </c>
+      <c r="M4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184277</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.8081118427</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.8081118428</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>21597.66737493622</v>
+        <v>21597.66737493621</v>
       </c>
       <c r="P4" t="n">
         <v>21597.66737493621</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1219512.908234684</v>
+        <v>-1219768.777474095</v>
       </c>
       <c r="C6" t="n">
-        <v>86636.83600791232</v>
+        <v>86636.83600791178</v>
       </c>
       <c r="D6" t="n">
-        <v>86636.83600791196</v>
+        <v>86636.83600791194</v>
       </c>
       <c r="E6" t="n">
-        <v>-157640.4898516026</v>
+        <v>-157675.2277770388</v>
       </c>
       <c r="F6" t="n">
-        <v>167771.9719557523</v>
+        <v>167737.2340303166</v>
       </c>
       <c r="G6" t="n">
-        <v>167771.9719557523</v>
+        <v>167737.2340303166</v>
       </c>
       <c r="H6" t="n">
-        <v>167771.9719557523</v>
+        <v>167737.2340303166</v>
       </c>
       <c r="I6" t="n">
-        <v>167771.9719557523</v>
+        <v>167737.2340303168</v>
       </c>
       <c r="J6" t="n">
-        <v>-49759.23044152537</v>
+        <v>-49793.96836696078</v>
       </c>
       <c r="K6" t="n">
-        <v>167771.9719557523</v>
+        <v>167737.2340303167</v>
       </c>
       <c r="L6" t="n">
-        <v>167771.9719557523</v>
+        <v>167737.2340303166</v>
       </c>
       <c r="M6" t="n">
-        <v>82716.94402024054</v>
+        <v>82682.20609480483</v>
       </c>
       <c r="N6" t="n">
-        <v>167771.9719557524</v>
+        <v>167737.2340303164</v>
       </c>
       <c r="O6" t="n">
         <v>143175.1182300158</v>
       </c>
       <c r="P6" t="n">
-        <v>162602.8362236477</v>
+        <v>162602.8362236476</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,34 +26787,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973549</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>81.81101077934022</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>123.387940552268</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>23.0031007076726</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>166.3497438692342</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>358.586209244551</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>180.0193177865297</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>147.757012156988</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>190.7078566989491</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>256.7665117192686</v>
+        <v>362.438685100379</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>75.50340795433937</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>34.20740423753514</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-2.211213280550236e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="30">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>399.190220890813</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>436.0678650906015</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963281</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>576.057346513631</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157699</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33266,34 +33266,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>270.948695672725</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>549.9198891312103</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>261.348781916454</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>302.0934576762713</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>433.4611020691866</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>103.6778299969399</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096391</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>407.3236446867659</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
